--- a/data/trans_media/PCS12_SP-Estudios-trans_media.xlsx
+++ b/data/trans_media/PCS12_SP-Estudios-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,78; 49,96</t>
+          <t>48,81; 49,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,95; 48,52</t>
+          <t>47,03; 48,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,3; 48,85</t>
+          <t>47,36; 48,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,78; 46,73</t>
+          <t>44,83; 46,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,27; 46,46</t>
+          <t>45,24; 46,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,51; 44,85</t>
+          <t>43,56; 44,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,49; 45,08</t>
+          <t>43,42; 45,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,78; 42,23</t>
+          <t>40,85; 42,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,99; 47,79</t>
+          <t>46,91; 47,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,22; 46,25</t>
+          <t>45,24; 46,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,4; 46,57</t>
+          <t>45,31; 46,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,66; 43,85</t>
+          <t>42,62; 43,8</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,06; 54,55</t>
+          <t>54,05; 54,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,67; 54,23</t>
+          <t>53,68; 54,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,52; 54,12</t>
+          <t>53,54; 54,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,61; 52,37</t>
+          <t>51,62; 52,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,85; 53,55</t>
+          <t>52,85; 53,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,42; 53,18</t>
+          <t>52,49; 53,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,17; 52,95</t>
+          <t>52,11; 52,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,04; 51,76</t>
+          <t>51,04; 51,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,57; 53,96</t>
+          <t>53,57; 53,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,19; 53,66</t>
+          <t>53,2; 53,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,96; 53,45</t>
+          <t>52,94; 53,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,45; 51,96</t>
+          <t>51,42; 51,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,86; 54,93</t>
+          <t>53,82; 54,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,55; 54,79</t>
+          <t>53,53; 54,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,99; 55,06</t>
+          <t>53,99; 55,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,81; 53,87</t>
+          <t>52,74; 53,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,57; 53,94</t>
+          <t>52,65; 53,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,41; 54,55</t>
+          <t>53,37; 54,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,87; 54,17</t>
+          <t>52,89; 54,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,52; 53,45</t>
+          <t>52,49; 53,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,51; 54,3</t>
+          <t>53,47; 54,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,71; 54,55</t>
+          <t>53,65; 54,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>53,65; 54,49</t>
+          <t>53,62; 54,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,83; 53,54</t>
+          <t>52,81; 53,5</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,05</t>
+          <t>52,55; 53,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,95; 52,58</t>
+          <t>51,96; 52,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,4; 52,98</t>
+          <t>52,41; 52,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,96; 51,61</t>
+          <t>50,98; 51,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,01; 50,66</t>
+          <t>50,03; 50,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,41; 50,06</t>
+          <t>49,39; 50,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,0; 50,74</t>
+          <t>49,98; 50,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,23; 49,96</t>
+          <t>49,24; 49,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,77</t>
+          <t>51,34; 51,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,75; 51,21</t>
+          <t>50,77; 51,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,74</t>
+          <t>51,27; 51,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,14; 50,61</t>
+          <t>50,18; 50,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/PCS12_SP-Estudios-trans_media.xlsx
+++ b/data/trans_media/PCS12_SP-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,81; 49,99</t>
+          <t>48,82; 50,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,03; 48,55</t>
+          <t>47,04; 48,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,36; 48,91</t>
+          <t>47,32; 48,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,24; 46,49</t>
+          <t>45,18; 46,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,56; 44,87</t>
+          <t>43,51; 44,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,42; 45,02</t>
+          <t>43,38; 45,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,91; 47,83</t>
+          <t>46,99; 47,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,24; 46,26</t>
+          <t>45,25; 46,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,31; 46,51</t>
+          <t>45,37; 46,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,05; 54,57</t>
+          <t>54,05; 54,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,68; 54,25</t>
+          <t>53,69; 54,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,54; 54,12</t>
+          <t>53,54; 54,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,85; 53,51</t>
+          <t>52,82; 53,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,49; 53,25</t>
+          <t>52,47; 53,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,11; 52,92</t>
+          <t>52,17; 52,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,57; 53,99</t>
+          <t>53,55; 53,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,2; 53,65</t>
+          <t>53,22; 53,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,94; 53,45</t>
+          <t>52,95; 53,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,82; 54,91</t>
+          <t>53,94; 54,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,53; 54,81</t>
+          <t>53,56; 54,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,99; 55,07</t>
+          <t>54,0; 55,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,65; 53,93</t>
+          <t>52,58; 53,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,37; 54,53</t>
+          <t>53,39; 54,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,89; 54,19</t>
+          <t>52,83; 54,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,47; 54,32</t>
+          <t>53,47; 54,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,65; 54,53</t>
+          <t>53,67; 54,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>53,62; 54,48</t>
+          <t>53,61; 54,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,06</t>
+          <t>52,54; 53,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,96; 52,54</t>
+          <t>51,95; 52,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,41; 52,97</t>
+          <t>52,38; 52,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,03; 50,67</t>
+          <t>50,02; 50,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,98; 50,78</t>
+          <t>49,97; 50,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,78</t>
+          <t>51,35; 51,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,77; 51,24</t>
+          <t>50,74; 51,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,27; 51,75</t>
+          <t>51,27; 51,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
